--- a/My workbooks/Customer Call List.xlsx
+++ b/My workbooks/Customer Call List.xlsx
@@ -1,26 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/579481080490e445/Documents/Pandas Tutorial/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mstjuniorschool-my.sharepoint.com/personal/ict_mstjuniorschool_ac_ug/Documents/Documents/Elizabeth Ssebuliba/Github/DataKirk/PandasYouTubeSeries/My workbooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="100" documentId="13_ncr:40009_{E07D7DFE-C20E-4C0A-9299-C6166B0A5365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{890D025C-C355-436F-87C5-736415E1B8DF}"/>
+  <xr:revisionPtr revIDLastSave="180" documentId="13_ncr:40009_{E07D7DFE-C20E-4C0A-9299-C6166B0A5365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3F78274-AE92-4C4F-A43D-D7DCE45488A4}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Call List" sheetId="1" r:id="rId1"/>
+    <sheet name="Working sheet" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Working sheet'!$A$1:$G$11</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="79">
   <si>
     <t>Frodo</t>
   </si>
@@ -245,6 +249,18 @@
   </si>
   <si>
     <t>Not_Useful_Column</t>
+  </si>
+  <si>
+    <t>123-643-9775</t>
+  </si>
+  <si>
+    <t>876-678-3469</t>
+  </si>
+  <si>
+    <t>Do_Nt_Contact</t>
+  </si>
+  <si>
+    <t>Flenderson</t>
   </si>
 </sst>
 </file>
@@ -728,9 +744,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1088,25 +1105,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" customWidth="1"/>
+    <col min="8" max="8" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.90625" customWidth="1"/>
+    <col min="12" max="12" width="8.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1132,7 +1149,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -1159,7 +1176,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -1186,7 +1203,7 @@
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -1210,7 +1227,7 @@
       </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -1237,7 +1254,7 @@
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -1264,7 +1281,7 @@
       </c>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -1291,7 +1308,7 @@
       </c>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -1315,7 +1332,7 @@
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -1342,7 +1359,7 @@
       </c>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -1363,7 +1380,7 @@
       </c>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1010</v>
       </c>
@@ -1390,7 +1407,7 @@
       </c>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1011</v>
       </c>
@@ -1414,7 +1431,7 @@
       </c>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1012</v>
       </c>
@@ -1438,7 +1455,7 @@
       </c>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1013</v>
       </c>
@@ -1465,7 +1482,7 @@
       </c>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1014</v>
       </c>
@@ -1492,7 +1509,7 @@
       </c>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1015</v>
       </c>
@@ -1519,7 +1536,7 @@
       </c>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1016</v>
       </c>
@@ -1546,7 +1563,7 @@
       </c>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1017</v>
       </c>
@@ -1573,7 +1590,7 @@
       </c>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1018</v>
       </c>
@@ -1597,7 +1614,7 @@
       </c>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1019</v>
       </c>
@@ -1624,7 +1641,7 @@
       </c>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1020</v>
       </c>
@@ -1651,7 +1668,7 @@
       </c>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1020</v>
       </c>
@@ -1682,4 +1699,283 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C161E574-3EE7-43C1-9A2C-8C6692EA388E}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="3" width="10.6328125" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" customWidth="1"/>
+    <col min="5" max="5" width="25.81640625" customWidth="1"/>
+    <col min="6" max="7" width="15.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1005</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1010</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1013</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>1014</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>1017</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>1020</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>1008</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>1015</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>1016</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G11" xr:uid="{C161E574-3EE7-43C1-9A2C-8C6692EA388E}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G11">
+      <sortCondition descending="1" ref="F1:F11"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/My workbooks/Customer Call List.xlsx
+++ b/My workbooks/Customer Call List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mstjuniorschool-my.sharepoint.com/personal/ict_mstjuniorschool_ac_ug/Documents/Documents/Elizabeth Ssebuliba/Github/DataKirk/PandasYouTubeSeries/My workbooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="180" documentId="13_ncr:40009_{E07D7DFE-C20E-4C0A-9299-C6166B0A5365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3F78274-AE92-4C4F-A43D-D7DCE45488A4}"/>
+  <xr:revisionPtr revIDLastSave="181" documentId="13_ncr:40009_{E07D7DFE-C20E-4C0A-9299-C6166B0A5365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FC74AE3-F851-44F1-8014-BFD64E63D4CC}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7750" yWindow="900" windowWidth="15350" windowHeight="9710" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Call List" sheetId="1" r:id="rId1"/>
@@ -804,6 +804,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1706,7 +1710,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection sqref="A1:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1788,22 +1792,22 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G4" t="s">
         <v>73</v>
@@ -1811,19 +1815,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F5" t="s">
         <v>72</v>
@@ -1834,19 +1838,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F6" t="s">
         <v>72</v>
@@ -1857,19 +1861,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="F7" t="s">
         <v>72</v>
@@ -1880,22 +1884,22 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G8" t="s">
         <v>73</v>
@@ -1903,19 +1907,19 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>1008</v>
+        <v>1016</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F9" t="s">
         <v>73</v>
@@ -1926,22 +1930,22 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G10" t="s">
         <v>73</v>
@@ -1949,22 +1953,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="E11" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G11" t="s">
         <v>73</v>
@@ -1973,7 +1977,7 @@
   </sheetData>
   <autoFilter ref="A1:G11" xr:uid="{C161E574-3EE7-43C1-9A2C-8C6692EA388E}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G11">
-      <sortCondition descending="1" ref="F1:F11"/>
+      <sortCondition ref="A2:A11"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
